--- a/02-Avancado1-Funcoes/09-PlanilhasExtras/Aula-38-ExcelAvancado1-Rodizio-SP.xlsx
+++ b/02-Avancado1-Funcoes/09-PlanilhasExtras/Aula-38-ExcelAvancado1-Rodizio-SP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaamonde\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\09-PlanilhasExtras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D216CB4-9D15-41B5-831A-50B37C1B09C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3C5A5B-C661-4FBB-8347-85B736E61152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rodízio" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,10 +36,27 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={4DF15D3A-4A0E-4A80-A578-8FC2D6348625}</author>
     <author>vaamonde</author>
+    <author>tc={75FD1DF7-BE91-4D06-9858-83F3906BCA40}</author>
+    <author>tc={7FDDCA6D-94B3-4B97-894A-9B9341FF5777}</author>
+    <author>tc={3EEB8058-BDEF-40CA-AE42-29AF6740E57A}</author>
+    <author>tc={8396CC81-5ECD-4E2A-9B35-6AE8B8CBBADE}</author>
+    <author>tc={045C13D9-46EC-4768-A25B-478475CBF909}</author>
+    <author>tc={58674541-988C-4974-BBE6-35293B5CD20F}</author>
+    <author>tc={6765A6E9-34E5-4880-9CBC-83CAA39A5FF8}</author>
+    <author>tc={E5E7FCFA-1514-4574-956B-617705BD7599}</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{4DF15D3A-4A0E-4A80-A578-8FC2D6348625}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =HOJE()</t>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,108 +69,68 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D11" authorId="2" shapeId="0" xr:uid="{75FD1DF7-BE91-4D06-9858-83F3906BCA40}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: =PROCV() e =DIA.DA.SEMANA()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar as Funções =PROCV() e =DIA.DA.SEMANA()</t>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F11" authorId="3" shapeId="0" xr:uid="{7FDDCA6D-94B3-4B97-894A-9B9341FF5777}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a Função =CONT.SE()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =CONT.SE()</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E12" authorId="4" shapeId="0" xr:uid="{3EEB8058-BDEF-40CA-AE42-29AF6740E57A}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: =ESQUERDA()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =ESQUERDA()</t>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F12" authorId="5" shapeId="0" xr:uid="{8396CC81-5ECD-4E2A-9B35-6AE8B8CBBADE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: =DIREITA()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =DIREITA()</t>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G12" authorId="6" shapeId="0" xr:uid="{045C13D9-46EC-4768-A25B-478475CBF909}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: =EXT.TEXTO()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =EXT.TEXTO()</t>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H12" authorId="7" shapeId="0" xr:uid="{58674541-988C-4974-BBE6-35293B5CD20F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: =DIREITA()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =DIREITA()</t>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I12" authorId="8" shapeId="0" xr:uid="{6765A6E9-34E5-4880-9CBC-83CAA39A5FF8}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: =PROCV()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =PROCV()</t>
       </text>
     </comment>
-    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J12" authorId="9" shapeId="0" xr:uid="{E5E7FCFA-1514-4574-956B-617705BD7599}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: =SE()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =SE()</t>
       </text>
     </comment>
   </commentList>
@@ -157,20 +140,15 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>vaamonde</author>
+    <author>tc={8A3472C3-A57B-4856-9545-B3C295932628}</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{8A3472C3-A57B-4856-9545-B3C295932628}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Dica: números estão sendo representados como sendo texto, dentro de ""</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Dica: números estão sendo representados como sendo texto, dentro de ""</t>
       </text>
     </comment>
   </commentList>
@@ -178,22 +156,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
-  <si>
-    <t>Prof. Robson Vaamonde
-http://facebook.com/ProcedimentosEmTI
-http://youtube.com/BoraParaPratica</t>
-  </si>
-  <si>
-    <t>Rodízio - Condomínio AulaEAD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Data de Hoje.:</t>
   </si>
   <si>
-    <t>Quant. Carros no Rodízio.:</t>
-  </si>
-  <si>
     <t>Morador</t>
   </si>
   <si>
@@ -365,14 +332,181 @@
     <t>domingo</t>
   </si>
   <si>
-    <t>Cálculo Mensagem: SE Dia do Rodízio = Dia Rodízio = Carro no Rodízio SENÃO Carro fora do Rodízio</t>
+    <t>Rodízio - Condomínio Vava</t>
+  </si>
+  <si>
+    <t>Dia da Semana</t>
+  </si>
+  <si>
+    <t>QuantIdade de Carros no Rodízio.:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cálculo Mensagem:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dia do Rodízio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dia Rodízio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Carro no Rodízio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SENÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Carro fora do Rodízio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Robson Vaamonde
+LinkedIn: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Instagram: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.instagram.com/procedimentoem/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+YouTUBE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.youtube.com/boraparapratica</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,14 +545,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -443,6 +569,88 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -458,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -515,15 +723,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -538,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,9 +749,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,39 +771,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,22 +833,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>84455</xdr:colOff>
+      <xdr:colOff>1996</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:rowOff>2953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>819978</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>122555</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>370113</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>149339</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="unnamed">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFA8CF3-1D0D-4822-98A1-82C4C438667E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -655,20 +857,12 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -676,8 +870,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="780194" y="191135"/>
-          <a:ext cx="735523" cy="519485"/>
+          <a:off x="626836" y="178213"/>
+          <a:ext cx="1663517" cy="877906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -688,23 +882,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>546652</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>739139</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:rowOff>18143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>67111</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="unnamed">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653A5702-66EF-4523-9CED-D3660F1F302C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -713,20 +907,12 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -734,8 +920,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8713304" y="191135"/>
-          <a:ext cx="737153" cy="528375"/>
+          <a:off x="7379425" y="192314"/>
+          <a:ext cx="3029115" cy="849734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152396</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>720104</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269FF75A-9BA3-4734-AEF6-962DDB0B793D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9873339" y="0"/>
+          <a:ext cx="4540994" cy="3773203"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,6 +981,117 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>370949</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF99D0E-1F54-49C8-B659-761B89D70CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3007995" y="0"/>
+          <a:ext cx="4540994" cy="3773203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276316</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1010193</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0EBC2E-4197-4308-8F19-3CF39D26A81C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="893536" y="185833"/>
+          <a:ext cx="1663517" cy="847426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="ROBSON SILVA VAAMONDE" id="{90687C46-2B51-47BC-9089-EA558AAA5F9F}" userId="S::robson.svaamonde@senacsp.edu.br::4d4f56a5-23e9-4d23-b645-e8636afaef3c" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,662 +1379,748 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B11" dT="2025-01-22T23:22:27.77" personId="{90687C46-2B51-47BC-9089-EA558AAA5F9F}" id="{4DF15D3A-4A0E-4A80-A578-8FC2D6348625}">
+    <text>Utilizar a Função =HOJE()</text>
+  </threadedComment>
+  <threadedComment ref="D11" dT="2025-01-22T23:22:27.77" personId="{90687C46-2B51-47BC-9089-EA558AAA5F9F}" id="{75FD1DF7-BE91-4D06-9858-83F3906BCA40}">
+    <text>Utilizar as Funções =PROCV() e =DIA.DA.SEMANA()</text>
+  </threadedComment>
+  <threadedComment ref="F11" dT="2025-01-22T23:24:48.13" personId="{90687C46-2B51-47BC-9089-EA558AAA5F9F}" id="{7FDDCA6D-94B3-4B97-894A-9B9341FF5777}">
+    <text>Utilizar a Função =CONT.SE()</text>
+  </threadedComment>
+  <threadedComment ref="E12" dT="2025-01-22T23:26:38.10" personId="{90687C46-2B51-47BC-9089-EA558AAA5F9F}" id="{3EEB8058-BDEF-40CA-AE42-29AF6740E57A}">
+    <text>Utilizar a Função =ESQUERDA()</text>
+  </threadedComment>
+  <threadedComment ref="F12" dT="2025-01-22T23:27:05.31" personId="{90687C46-2B51-47BC-9089-EA558AAA5F9F}" id="{8396CC81-5ECD-4E2A-9B35-6AE8B8CBBADE}">
+    <text>Utilizar a Função =DIREITA()</text>
+  </threadedComment>
+  <threadedComment ref="G12" dT="2025-01-22T23:27:26.49" personId="{90687C46-2B51-47BC-9089-EA558AAA5F9F}" id="{045C13D9-46EC-4768-A25B-478475CBF909}">
+    <text>Utilizar a Função =EXT.TEXTO()</text>
+  </threadedComment>
+  <threadedComment ref="H12" dT="2025-01-22T23:27:50.04" personId="{90687C46-2B51-47BC-9089-EA558AAA5F9F}" id="{58674541-988C-4974-BBE6-35293B5CD20F}">
+    <text>Utilizar a Função =DIREITA()</text>
+  </threadedComment>
+  <threadedComment ref="I12" dT="2025-01-22T23:28:12.82" personId="{90687C46-2B51-47BC-9089-EA558AAA5F9F}" id="{6765A6E9-34E5-4880-9CBC-83CAA39A5FF8}">
+    <text>Utilizar a Função =PROCV()</text>
+  </threadedComment>
+  <threadedComment ref="J12" dT="2025-01-22T23:28:33.17" personId="{90687C46-2B51-47BC-9089-EA558AAA5F9F}" id="{E5E7FCFA-1514-4574-956B-617705BD7599}">
+    <text>Utilizar a Função =SE()</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B8" dT="2025-01-22T23:21:33.94" personId="{90687C46-2B51-47BC-9089-EA558AAA5F9F}" id="{8A3472C3-A57B-4856-9545-B3C295932628}">
+    <text>Dica: números estão sendo representados como sendo texto, dentro de ""</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="18" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="9" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" customWidth="1"/>
+    <col min="17" max="18" width="9" hidden="1"/>
+    <col min="19" max="19" width="13.88671875" hidden="1"/>
     <col min="20" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14"/>
-    <row r="2" spans="2:14" ht="11.1" customHeight="1">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="1:14" s="25" customFormat="1" ht="13.8">
+      <c r="A1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:14" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" s="25" customFormat="1" ht="16.8">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" ht="21">
+      <c r="B8" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:14"/>
+    <row r="10" spans="1:14" ht="25.8">
+      <c r="B10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1">
+      <c r="B11" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="2:14" ht="11.1" customHeight="1">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="2:14" ht="11.1" customHeight="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="2:14" ht="11.1" customHeight="1">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="2:14" ht="26.25">
-      <c r="B6" s="22" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="2:14" ht="18.75">
-      <c r="B7" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="25" t="s">
+      <c r="D12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="9" t="s">
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="C13" s="11">
         <v>11</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="18"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="11" t="s">
+      <c r="C14" s="11">
+        <v>21</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="18"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="21"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="11" t="s">
+      <c r="C15" s="11">
+        <v>31</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="18"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11">
+        <v>41</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="18"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11">
+        <v>51</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="18"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="11">
+        <v>61</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="21"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="18"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="11">
+        <v>71</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="18"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11">
+        <v>81</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="18"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11">
+        <v>91</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="18"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11">
+        <v>101</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="11">
+        <v>111</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="21"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="11">
+        <v>121</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="11">
+        <v>131</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="11">
+        <v>141</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="11">
+        <v>151</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="11">
+        <v>161</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="12">
-        <v>51</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="21"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="12">
-        <v>61</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="21"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="12">
-        <v>71</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="12">
-        <v>81</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="21"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="12">
-        <v>91</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="21"/>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="12">
-        <v>101</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="12">
-        <v>111</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="12">
-        <v>121</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="12">
-        <v>131</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="12">
-        <v>141</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="21"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="12">
-        <v>151</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="11" t="s">
+      <c r="C29" s="11">
+        <v>171</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="12">
-        <v>161</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="11" t="s">
+      <c r="C30" s="11">
+        <v>181</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="12">
-        <v>171</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="12">
-        <v>181</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-    </row>
-    <row r="29" spans="2:14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B2:J5"/>
-    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B2:J6"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" hidden="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="11" width="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3"/>
-    <row r="2" spans="2:3">
-      <c r="B2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="28"/>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="2" t="str">
+    <row r="1" spans="1:3" s="25" customFormat="1" ht="13.8">
+      <c r="A1" s="24"/>
+    </row>
+    <row r="2" spans="1:3" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:3" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" s="25" customFormat="1" ht="16.8">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="2" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="2" t="str">
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="2" t="str">
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="2" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="2" t="str">
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="2" t="str">
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="2" t="str">
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="5">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="5">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="5">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="5">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="5">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="5">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="5">
         <v>7</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3"/>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="3">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>